--- a/src/price/LDSP_Decors_Classic.xlsx
+++ b/src/price/LDSP_Decors_Classic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\src\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598F6F3-A085-4180-9E06-34120495510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16809557-8382-47F3-A82A-8140642FEED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24810" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Классика</t>
   </si>
@@ -101,9 +101,6 @@
     <t>сканди</t>
   </si>
   <si>
-    <t xml:space="preserve">эльбрус </t>
-  </si>
-  <si>
     <t>черный</t>
   </si>
   <si>
@@ -123,6 +120,69 @@
   </si>
   <si>
     <t>пальмира</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>P,U</t>
+  </si>
+  <si>
+    <t>O,P,U</t>
+  </si>
+  <si>
+    <t>D,L,P</t>
+  </si>
+  <si>
+    <t>D,L,R,V,K,O,P,T</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K,L,P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L,V,P</t>
+  </si>
+  <si>
+    <t>R,T</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O,P</t>
+  </si>
+  <si>
+    <t>D*</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>L,P,U</t>
+  </si>
+  <si>
+    <t>L,P</t>
+  </si>
+  <si>
+    <t>P,R</t>
+  </si>
+  <si>
+    <t>P,R,K,N*</t>
+  </si>
+  <si>
+    <t>эльбрус</t>
   </si>
 </sst>
 </file>
@@ -450,7 +510,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,140 +542,434 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
